--- a/datasets/census/solutions-data/census-sorted.xlsx
+++ b/datasets/census/solutions-data/census-sorted.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F307"/>
+  <dimension ref="A1:G307"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -380,10 +380,15 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>postal_code</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>region</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>division</t>
         </is>
@@ -406,10 +411,15 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
+          <t>IL</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
           <t>Midwest</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>East North Central</t>
         </is>
@@ -432,10 +442,15 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
+          <t>IL</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
           <t>Midwest</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>East North Central</t>
         </is>
@@ -458,10 +473,15 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>IL</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
           <t>Midwest</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>East North Central</t>
         </is>
@@ -484,10 +504,15 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>IL</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
           <t>Midwest</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>East North Central</t>
         </is>
@@ -510,10 +535,15 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>IL</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
           <t>Midwest</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>East North Central</t>
         </is>
@@ -536,10 +566,15 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>IL</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
           <t>Midwest</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>East North Central</t>
         </is>
@@ -562,10 +597,15 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
+          <t>OH</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
           <t>Midwest</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>East North Central</t>
         </is>
@@ -588,10 +628,15 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
+          <t>OH</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
           <t>Midwest</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>East North Central</t>
         </is>
@@ -614,10 +659,15 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
+          <t>OH</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
           <t>Midwest</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>East North Central</t>
         </is>
@@ -640,10 +690,15 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
+          <t>OH</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
           <t>Midwest</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>East North Central</t>
         </is>
@@ -666,10 +721,15 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
+          <t>OH</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
           <t>Midwest</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>East North Central</t>
         </is>
@@ -692,10 +752,15 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
+          <t>OH</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
           <t>Midwest</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>East North Central</t>
         </is>
@@ -718,10 +783,15 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
+          <t>MI</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
           <t>Midwest</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>East North Central</t>
         </is>
@@ -744,10 +814,15 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
+          <t>MI</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
           <t>Midwest</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>East North Central</t>
         </is>
@@ -770,10 +845,15 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
+          <t>MI</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
           <t>Midwest</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>East North Central</t>
         </is>
@@ -796,10 +876,15 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
+          <t>MI</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
           <t>Midwest</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>East North Central</t>
         </is>
@@ -822,10 +907,15 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
+          <t>MI</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
           <t>Midwest</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>East North Central</t>
         </is>
@@ -848,10 +938,15 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
+          <t>MI</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
           <t>Midwest</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>East North Central</t>
         </is>
@@ -874,10 +969,15 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
           <t>Midwest</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>East North Central</t>
         </is>
@@ -900,10 +1000,15 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
           <t>Midwest</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>East North Central</t>
         </is>
@@ -926,10 +1031,15 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
           <t>Midwest</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>East North Central</t>
         </is>
@@ -952,10 +1062,15 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
           <t>Midwest</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>East North Central</t>
         </is>
@@ -978,10 +1093,15 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
           <t>Midwest</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>East North Central</t>
         </is>
@@ -1004,10 +1124,15 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
           <t>Midwest</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>East North Central</t>
         </is>
@@ -1030,10 +1155,15 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
+          <t>WI</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
           <t>Midwest</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>East North Central</t>
         </is>
@@ -1056,10 +1186,15 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
+          <t>WI</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
           <t>Midwest</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>East North Central</t>
         </is>
@@ -1082,10 +1217,15 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
+          <t>WI</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
           <t>Midwest</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>East North Central</t>
         </is>
@@ -1108,10 +1248,15 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
+          <t>WI</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
           <t>Midwest</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>East North Central</t>
         </is>
@@ -1134,10 +1279,15 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
+          <t>WI</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
           <t>Midwest</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>East North Central</t>
         </is>
@@ -1160,10 +1310,15 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
+          <t>WI</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
           <t>Midwest</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>East North Central</t>
         </is>
@@ -1186,10 +1341,15 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
+          <t>MO</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
           <t>Midwest</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>West North Central</t>
         </is>
@@ -1212,10 +1372,15 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
+          <t>MO</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
           <t>Midwest</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>West North Central</t>
         </is>
@@ -1238,10 +1403,15 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
+          <t>MO</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
           <t>Midwest</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>West North Central</t>
         </is>
@@ -1264,10 +1434,15 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
+          <t>MO</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
           <t>Midwest</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>West North Central</t>
         </is>
@@ -1290,10 +1465,15 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
+          <t>MO</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
           <t>Midwest</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>West North Central</t>
         </is>
@@ -1316,10 +1496,15 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
+          <t>MO</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
           <t>Midwest</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>West North Central</t>
         </is>
@@ -1342,10 +1527,15 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
+          <t>MN</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
           <t>Midwest</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>West North Central</t>
         </is>
@@ -1368,10 +1558,15 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
+          <t>MN</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
           <t>Midwest</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>West North Central</t>
         </is>
@@ -1394,10 +1589,15 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
+          <t>MN</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
           <t>Midwest</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>West North Central</t>
         </is>
@@ -1420,10 +1620,15 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
+          <t>MN</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
           <t>Midwest</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>West North Central</t>
         </is>
@@ -1446,10 +1651,15 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
+          <t>MN</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
           <t>Midwest</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>West North Central</t>
         </is>
@@ -1472,10 +1682,15 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
+          <t>MN</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
           <t>Midwest</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>West North Central</t>
         </is>
@@ -1498,10 +1713,15 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
+          <t>IA</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
           <t>Midwest</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>West North Central</t>
         </is>
@@ -1524,10 +1744,15 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
+          <t>IA</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
           <t>Midwest</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>West North Central</t>
         </is>
@@ -1550,10 +1775,15 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
+          <t>IA</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
           <t>Midwest</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>West North Central</t>
         </is>
@@ -1576,10 +1806,15 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
+          <t>IA</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
           <t>Midwest</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>West North Central</t>
         </is>
@@ -1602,10 +1837,15 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
+          <t>IA</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
           <t>Midwest</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>West North Central</t>
         </is>
@@ -1628,10 +1868,15 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
+          <t>IA</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
           <t>Midwest</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>West North Central</t>
         </is>
@@ -1654,10 +1899,15 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
+          <t>KS</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
           <t>Midwest</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>West North Central</t>
         </is>
@@ -1680,10 +1930,15 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
+          <t>KS</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
           <t>Midwest</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>West North Central</t>
         </is>
@@ -1706,10 +1961,15 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
+          <t>KS</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
           <t>Midwest</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
+      <c r="G52" t="inlineStr">
         <is>
           <t>West North Central</t>
         </is>
@@ -1732,10 +1992,15 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
+          <t>KS</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
           <t>Midwest</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
+      <c r="G53" t="inlineStr">
         <is>
           <t>West North Central</t>
         </is>
@@ -1758,10 +2023,15 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
+          <t>KS</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
           <t>Midwest</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
+      <c r="G54" t="inlineStr">
         <is>
           <t>West North Central</t>
         </is>
@@ -1784,10 +2054,15 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
+          <t>KS</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
           <t>Midwest</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
+      <c r="G55" t="inlineStr">
         <is>
           <t>West North Central</t>
         </is>
@@ -1810,10 +2085,15 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
+          <t>NE</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
           <t>Midwest</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
+      <c r="G56" t="inlineStr">
         <is>
           <t>West North Central</t>
         </is>
@@ -1836,10 +2116,15 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
+          <t>NE</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
           <t>Midwest</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
+      <c r="G57" t="inlineStr">
         <is>
           <t>West North Central</t>
         </is>
@@ -1862,10 +2147,15 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
+          <t>NE</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
           <t>Midwest</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr">
+      <c r="G58" t="inlineStr">
         <is>
           <t>West North Central</t>
         </is>
@@ -1888,10 +2178,15 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
+          <t>NE</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
           <t>Midwest</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
+      <c r="G59" t="inlineStr">
         <is>
           <t>West North Central</t>
         </is>
@@ -1914,10 +2209,15 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
+          <t>NE</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
           <t>Midwest</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr">
+      <c r="G60" t="inlineStr">
         <is>
           <t>West North Central</t>
         </is>
@@ -1940,10 +2240,15 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
+          <t>NE</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
           <t>Midwest</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
+      <c r="G61" t="inlineStr">
         <is>
           <t>West North Central</t>
         </is>
@@ -1966,10 +2271,15 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
+          <t>SD</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
           <t>Midwest</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
+      <c r="G62" t="inlineStr">
         <is>
           <t>West North Central</t>
         </is>
@@ -1992,10 +2302,15 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
+          <t>SD</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
           <t>Midwest</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr">
+      <c r="G63" t="inlineStr">
         <is>
           <t>West North Central</t>
         </is>
@@ -2018,10 +2333,15 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
+          <t>SD</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
           <t>Midwest</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr">
+      <c r="G64" t="inlineStr">
         <is>
           <t>West North Central</t>
         </is>
@@ -2044,10 +2364,15 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
+          <t>SD</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
           <t>Midwest</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr">
+      <c r="G65" t="inlineStr">
         <is>
           <t>West North Central</t>
         </is>
@@ -2070,10 +2395,15 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
+          <t>SD</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
           <t>Midwest</t>
         </is>
       </c>
-      <c r="F66" t="inlineStr">
+      <c r="G66" t="inlineStr">
         <is>
           <t>West North Central</t>
         </is>
@@ -2096,10 +2426,15 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
+          <t>SD</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
           <t>Midwest</t>
         </is>
       </c>
-      <c r="F67" t="inlineStr">
+      <c r="G67" t="inlineStr">
         <is>
           <t>West North Central</t>
         </is>
@@ -2122,10 +2457,15 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
+          <t>ND</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
           <t>Midwest</t>
         </is>
       </c>
-      <c r="F68" t="inlineStr">
+      <c r="G68" t="inlineStr">
         <is>
           <t>West North Central</t>
         </is>
@@ -2148,10 +2488,15 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
+          <t>ND</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
           <t>Midwest</t>
         </is>
       </c>
-      <c r="F69" t="inlineStr">
+      <c r="G69" t="inlineStr">
         <is>
           <t>West North Central</t>
         </is>
@@ -2174,10 +2519,15 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
+          <t>ND</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
           <t>Midwest</t>
         </is>
       </c>
-      <c r="F70" t="inlineStr">
+      <c r="G70" t="inlineStr">
         <is>
           <t>West North Central</t>
         </is>
@@ -2200,10 +2550,15 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
+          <t>ND</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
           <t>Midwest</t>
         </is>
       </c>
-      <c r="F71" t="inlineStr">
+      <c r="G71" t="inlineStr">
         <is>
           <t>West North Central</t>
         </is>
@@ -2226,10 +2581,15 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
+          <t>ND</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
           <t>Midwest</t>
         </is>
       </c>
-      <c r="F72" t="inlineStr">
+      <c r="G72" t="inlineStr">
         <is>
           <t>West North Central</t>
         </is>
@@ -2252,10 +2612,15 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
+          <t>ND</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
           <t>Midwest</t>
         </is>
       </c>
-      <c r="F73" t="inlineStr">
+      <c r="G73" t="inlineStr">
         <is>
           <t>West North Central</t>
         </is>
@@ -2278,10 +2643,15 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
+          <t>NY</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
           <t>Northeast</t>
         </is>
       </c>
-      <c r="F74" t="inlineStr">
+      <c r="G74" t="inlineStr">
         <is>
           <t>Middle Atlantic</t>
         </is>
@@ -2304,10 +2674,15 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
+          <t>NY</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
           <t>Northeast</t>
         </is>
       </c>
-      <c r="F75" t="inlineStr">
+      <c r="G75" t="inlineStr">
         <is>
           <t>Middle Atlantic</t>
         </is>
@@ -2330,10 +2705,15 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
+          <t>NY</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
           <t>Northeast</t>
         </is>
       </c>
-      <c r="F76" t="inlineStr">
+      <c r="G76" t="inlineStr">
         <is>
           <t>Middle Atlantic</t>
         </is>
@@ -2356,10 +2736,15 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
+          <t>NY</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
           <t>Northeast</t>
         </is>
       </c>
-      <c r="F77" t="inlineStr">
+      <c r="G77" t="inlineStr">
         <is>
           <t>Middle Atlantic</t>
         </is>
@@ -2382,10 +2767,15 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
+          <t>NY</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
           <t>Northeast</t>
         </is>
       </c>
-      <c r="F78" t="inlineStr">
+      <c r="G78" t="inlineStr">
         <is>
           <t>Middle Atlantic</t>
         </is>
@@ -2408,10 +2798,15 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
+          <t>NY</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
           <t>Northeast</t>
         </is>
       </c>
-      <c r="F79" t="inlineStr">
+      <c r="G79" t="inlineStr">
         <is>
           <t>Middle Atlantic</t>
         </is>
@@ -2434,10 +2829,15 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
+          <t>PA</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
           <t>Northeast</t>
         </is>
       </c>
-      <c r="F80" t="inlineStr">
+      <c r="G80" t="inlineStr">
         <is>
           <t>Middle Atlantic</t>
         </is>
@@ -2460,10 +2860,15 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
+          <t>PA</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
           <t>Northeast</t>
         </is>
       </c>
-      <c r="F81" t="inlineStr">
+      <c r="G81" t="inlineStr">
         <is>
           <t>Middle Atlantic</t>
         </is>
@@ -2486,10 +2891,15 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
+          <t>PA</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
           <t>Northeast</t>
         </is>
       </c>
-      <c r="F82" t="inlineStr">
+      <c r="G82" t="inlineStr">
         <is>
           <t>Middle Atlantic</t>
         </is>
@@ -2512,10 +2922,15 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
+          <t>PA</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
           <t>Northeast</t>
         </is>
       </c>
-      <c r="F83" t="inlineStr">
+      <c r="G83" t="inlineStr">
         <is>
           <t>Middle Atlantic</t>
         </is>
@@ -2538,10 +2953,15 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
+          <t>PA</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
           <t>Northeast</t>
         </is>
       </c>
-      <c r="F84" t="inlineStr">
+      <c r="G84" t="inlineStr">
         <is>
           <t>Middle Atlantic</t>
         </is>
@@ -2564,10 +2984,15 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
+          <t>PA</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
           <t>Northeast</t>
         </is>
       </c>
-      <c r="F85" t="inlineStr">
+      <c r="G85" t="inlineStr">
         <is>
           <t>Middle Atlantic</t>
         </is>
@@ -2590,10 +3015,15 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
+          <t>NJ</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
           <t>Northeast</t>
         </is>
       </c>
-      <c r="F86" t="inlineStr">
+      <c r="G86" t="inlineStr">
         <is>
           <t>Middle Atlantic</t>
         </is>
@@ -2616,10 +3046,15 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
+          <t>NJ</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
           <t>Northeast</t>
         </is>
       </c>
-      <c r="F87" t="inlineStr">
+      <c r="G87" t="inlineStr">
         <is>
           <t>Middle Atlantic</t>
         </is>
@@ -2642,10 +3077,15 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
+          <t>NJ</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
           <t>Northeast</t>
         </is>
       </c>
-      <c r="F88" t="inlineStr">
+      <c r="G88" t="inlineStr">
         <is>
           <t>Middle Atlantic</t>
         </is>
@@ -2668,10 +3108,15 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
+          <t>NJ</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
           <t>Northeast</t>
         </is>
       </c>
-      <c r="F89" t="inlineStr">
+      <c r="G89" t="inlineStr">
         <is>
           <t>Middle Atlantic</t>
         </is>
@@ -2694,10 +3139,15 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
+          <t>NJ</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
           <t>Northeast</t>
         </is>
       </c>
-      <c r="F90" t="inlineStr">
+      <c r="G90" t="inlineStr">
         <is>
           <t>Middle Atlantic</t>
         </is>
@@ -2720,10 +3170,15 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
+          <t>NJ</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
           <t>Northeast</t>
         </is>
       </c>
-      <c r="F91" t="inlineStr">
+      <c r="G91" t="inlineStr">
         <is>
           <t>Middle Atlantic</t>
         </is>
@@ -2746,10 +3201,15 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
           <t>Northeast</t>
         </is>
       </c>
-      <c r="F92" t="inlineStr">
+      <c r="G92" t="inlineStr">
         <is>
           <t>New England</t>
         </is>
@@ -2772,10 +3232,15 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
           <t>Northeast</t>
         </is>
       </c>
-      <c r="F93" t="inlineStr">
+      <c r="G93" t="inlineStr">
         <is>
           <t>New England</t>
         </is>
@@ -2798,10 +3263,15 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
           <t>Northeast</t>
         </is>
       </c>
-      <c r="F94" t="inlineStr">
+      <c r="G94" t="inlineStr">
         <is>
           <t>New England</t>
         </is>
@@ -2824,10 +3294,15 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
           <t>Northeast</t>
         </is>
       </c>
-      <c r="F95" t="inlineStr">
+      <c r="G95" t="inlineStr">
         <is>
           <t>New England</t>
         </is>
@@ -2850,10 +3325,15 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
           <t>Northeast</t>
         </is>
       </c>
-      <c r="F96" t="inlineStr">
+      <c r="G96" t="inlineStr">
         <is>
           <t>New England</t>
         </is>
@@ -2876,10 +3356,15 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
           <t>Northeast</t>
         </is>
       </c>
-      <c r="F97" t="inlineStr">
+      <c r="G97" t="inlineStr">
         <is>
           <t>New England</t>
         </is>
@@ -2902,10 +3387,15 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
           <t>Northeast</t>
         </is>
       </c>
-      <c r="F98" t="inlineStr">
+      <c r="G98" t="inlineStr">
         <is>
           <t>New England</t>
         </is>
@@ -2928,10 +3418,15 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
           <t>Northeast</t>
         </is>
       </c>
-      <c r="F99" t="inlineStr">
+      <c r="G99" t="inlineStr">
         <is>
           <t>New England</t>
         </is>
@@ -2954,10 +3449,15 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
           <t>Northeast</t>
         </is>
       </c>
-      <c r="F100" t="inlineStr">
+      <c r="G100" t="inlineStr">
         <is>
           <t>New England</t>
         </is>
@@ -2980,10 +3480,15 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
           <t>Northeast</t>
         </is>
       </c>
-      <c r="F101" t="inlineStr">
+      <c r="G101" t="inlineStr">
         <is>
           <t>New England</t>
         </is>
@@ -3006,10 +3511,15 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
           <t>Northeast</t>
         </is>
       </c>
-      <c r="F102" t="inlineStr">
+      <c r="G102" t="inlineStr">
         <is>
           <t>New England</t>
         </is>
@@ -3032,10 +3542,15 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
           <t>Northeast</t>
         </is>
       </c>
-      <c r="F103" t="inlineStr">
+      <c r="G103" t="inlineStr">
         <is>
           <t>New England</t>
         </is>
@@ -3058,10 +3573,15 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
+          <t>NH</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
           <t>Northeast</t>
         </is>
       </c>
-      <c r="F104" t="inlineStr">
+      <c r="G104" t="inlineStr">
         <is>
           <t>New England</t>
         </is>
@@ -3084,10 +3604,15 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
+          <t>NH</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
           <t>Northeast</t>
         </is>
       </c>
-      <c r="F105" t="inlineStr">
+      <c r="G105" t="inlineStr">
         <is>
           <t>New England</t>
         </is>
@@ -3110,10 +3635,15 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
+          <t>ME</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
           <t>Northeast</t>
         </is>
       </c>
-      <c r="F106" t="inlineStr">
+      <c r="G106" t="inlineStr">
         <is>
           <t>New England</t>
         </is>
@@ -3136,10 +3666,15 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
+          <t>ME</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
           <t>Northeast</t>
         </is>
       </c>
-      <c r="F107" t="inlineStr">
+      <c r="G107" t="inlineStr">
         <is>
           <t>New England</t>
         </is>
@@ -3162,10 +3697,15 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
+          <t>ME</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
           <t>Northeast</t>
         </is>
       </c>
-      <c r="F108" t="inlineStr">
+      <c r="G108" t="inlineStr">
         <is>
           <t>New England</t>
         </is>
@@ -3188,10 +3728,15 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
+          <t>ME</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
           <t>Northeast</t>
         </is>
       </c>
-      <c r="F109" t="inlineStr">
+      <c r="G109" t="inlineStr">
         <is>
           <t>New England</t>
         </is>
@@ -3214,10 +3759,15 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
+          <t>ME</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
           <t>Northeast</t>
         </is>
       </c>
-      <c r="F110" t="inlineStr">
+      <c r="G110" t="inlineStr">
         <is>
           <t>New England</t>
         </is>
@@ -3240,10 +3790,15 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
+          <t>ME</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
           <t>Northeast</t>
         </is>
       </c>
-      <c r="F111" t="inlineStr">
+      <c r="G111" t="inlineStr">
         <is>
           <t>New England</t>
         </is>
@@ -3266,10 +3821,15 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
+          <t>NH</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
           <t>Northeast</t>
         </is>
       </c>
-      <c r="F112" t="inlineStr">
+      <c r="G112" t="inlineStr">
         <is>
           <t>New England</t>
         </is>
@@ -3292,10 +3852,15 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
+          <t>NH</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
           <t>Northeast</t>
         </is>
       </c>
-      <c r="F113" t="inlineStr">
+      <c r="G113" t="inlineStr">
         <is>
           <t>New England</t>
         </is>
@@ -3318,10 +3883,15 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
+          <t>NH</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
           <t>Northeast</t>
         </is>
       </c>
-      <c r="F114" t="inlineStr">
+      <c r="G114" t="inlineStr">
         <is>
           <t>New England</t>
         </is>
@@ -3344,10 +3914,15 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
+          <t>NH</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
           <t>Northeast</t>
         </is>
       </c>
-      <c r="F115" t="inlineStr">
+      <c r="G115" t="inlineStr">
         <is>
           <t>New England</t>
         </is>
@@ -3370,10 +3945,15 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
+          <t>RI</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
           <t>Northeast</t>
         </is>
       </c>
-      <c r="F116" t="inlineStr">
+      <c r="G116" t="inlineStr">
         <is>
           <t>New England</t>
         </is>
@@ -3396,10 +3976,15 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
+          <t>RI</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
           <t>Northeast</t>
         </is>
       </c>
-      <c r="F117" t="inlineStr">
+      <c r="G117" t="inlineStr">
         <is>
           <t>New England</t>
         </is>
@@ -3422,10 +4007,15 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
+          <t>RI</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
           <t>Northeast</t>
         </is>
       </c>
-      <c r="F118" t="inlineStr">
+      <c r="G118" t="inlineStr">
         <is>
           <t>New England</t>
         </is>
@@ -3448,10 +4038,15 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
+          <t>RI</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
           <t>Northeast</t>
         </is>
       </c>
-      <c r="F119" t="inlineStr">
+      <c r="G119" t="inlineStr">
         <is>
           <t>New England</t>
         </is>
@@ -3474,10 +4069,15 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
+          <t>RI</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
           <t>Northeast</t>
         </is>
       </c>
-      <c r="F120" t="inlineStr">
+      <c r="G120" t="inlineStr">
         <is>
           <t>New England</t>
         </is>
@@ -3500,10 +4100,15 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
+          <t>RI</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
           <t>Northeast</t>
         </is>
       </c>
-      <c r="F121" t="inlineStr">
+      <c r="G121" t="inlineStr">
         <is>
           <t>New England</t>
         </is>
@@ -3526,10 +4131,15 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
+          <t>VT</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
           <t>Northeast</t>
         </is>
       </c>
-      <c r="F122" t="inlineStr">
+      <c r="G122" t="inlineStr">
         <is>
           <t>New England</t>
         </is>
@@ -3552,10 +4162,15 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
+          <t>VT</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
           <t>Northeast</t>
         </is>
       </c>
-      <c r="F123" t="inlineStr">
+      <c r="G123" t="inlineStr">
         <is>
           <t>New England</t>
         </is>
@@ -3578,10 +4193,15 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
+          <t>VT</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
           <t>Northeast</t>
         </is>
       </c>
-      <c r="F124" t="inlineStr">
+      <c r="G124" t="inlineStr">
         <is>
           <t>New England</t>
         </is>
@@ -3604,10 +4224,15 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
+          <t>VT</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
           <t>Northeast</t>
         </is>
       </c>
-      <c r="F125" t="inlineStr">
+      <c r="G125" t="inlineStr">
         <is>
           <t>New England</t>
         </is>
@@ -3630,10 +4255,15 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
+          <t>VT</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
           <t>Northeast</t>
         </is>
       </c>
-      <c r="F126" t="inlineStr">
+      <c r="G126" t="inlineStr">
         <is>
           <t>New England</t>
         </is>
@@ -3656,10 +4286,15 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
+          <t>VT</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
           <t>Northeast</t>
         </is>
       </c>
-      <c r="F127" t="inlineStr">
+      <c r="G127" t="inlineStr">
         <is>
           <t>New England</t>
         </is>
@@ -3682,10 +4317,15 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>TN</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
+        <is>
+          <t>South</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
         <is>
           <t>East South Central</t>
         </is>
@@ -3708,10 +4348,15 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>TN</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
+        <is>
+          <t>South</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
         <is>
           <t>East South Central</t>
         </is>
@@ -3734,10 +4379,15 @@
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>TN</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
+        <is>
+          <t>South</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
         <is>
           <t>East South Central</t>
         </is>
@@ -3760,10 +4410,15 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>TN</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
+        <is>
+          <t>South</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
         <is>
           <t>East South Central</t>
         </is>
@@ -3786,10 +4441,15 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>TN</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
+        <is>
+          <t>South</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
         <is>
           <t>East South Central</t>
         </is>
@@ -3812,10 +4472,15 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>TN</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
+        <is>
+          <t>South</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
         <is>
           <t>East South Central</t>
         </is>
@@ -3838,10 +4503,15 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>AL</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
+        <is>
+          <t>South</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
         <is>
           <t>East South Central</t>
         </is>
@@ -3864,10 +4534,15 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>AL</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
+        <is>
+          <t>South</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
         <is>
           <t>East South Central</t>
         </is>
@@ -3890,10 +4565,15 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>AL</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
+        <is>
+          <t>South</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
         <is>
           <t>East South Central</t>
         </is>
@@ -3916,10 +4596,15 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>AL</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
+        <is>
+          <t>South</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
         <is>
           <t>East South Central</t>
         </is>
@@ -3942,10 +4627,15 @@
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>AL</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
+        <is>
+          <t>South</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
         <is>
           <t>East South Central</t>
         </is>
@@ -3968,10 +4658,15 @@
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>AL</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
+        <is>
+          <t>South</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
         <is>
           <t>East South Central</t>
         </is>
@@ -3994,10 +4689,15 @@
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>KY</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
+        <is>
+          <t>South</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
         <is>
           <t>East South Central</t>
         </is>
@@ -4020,10 +4720,15 @@
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>KY</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
+        <is>
+          <t>South</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
         <is>
           <t>East South Central</t>
         </is>
@@ -4046,10 +4751,15 @@
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>KY</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
+        <is>
+          <t>South</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
         <is>
           <t>East South Central</t>
         </is>
@@ -4072,10 +4782,15 @@
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>KY</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
+        <is>
+          <t>South</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
         <is>
           <t>East South Central</t>
         </is>
@@ -4098,10 +4813,15 @@
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>KY</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
+        <is>
+          <t>South</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
         <is>
           <t>East South Central</t>
         </is>
@@ -4124,10 +4844,15 @@
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>KY</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
+        <is>
+          <t>South</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
         <is>
           <t>East South Central</t>
         </is>
@@ -4150,10 +4875,15 @@
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>MS</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
+        <is>
+          <t>South</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
         <is>
           <t>East South Central</t>
         </is>
@@ -4176,10 +4906,15 @@
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>MS</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
+        <is>
+          <t>South</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
         <is>
           <t>East South Central</t>
         </is>
@@ -4202,10 +4937,15 @@
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>MS</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
+        <is>
+          <t>South</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
         <is>
           <t>East South Central</t>
         </is>
@@ -4228,10 +4968,15 @@
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>MS</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
+        <is>
+          <t>South</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
         <is>
           <t>East South Central</t>
         </is>
@@ -4254,10 +4999,15 @@
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>MS</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
+        <is>
+          <t>South</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
         <is>
           <t>East South Central</t>
         </is>
@@ -4280,10 +5030,15 @@
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>MS</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
+        <is>
+          <t>South</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
         <is>
           <t>East South Central</t>
         </is>
@@ -4306,10 +5061,15 @@
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>FL</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
+        <is>
+          <t>South</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
         <is>
           <t>South Atlantic</t>
         </is>
@@ -4332,10 +5092,15 @@
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>FL</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
+        <is>
+          <t>South</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
         <is>
           <t>South Atlantic</t>
         </is>
@@ -4358,10 +5123,15 @@
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>FL</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
+        <is>
+          <t>South</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
         <is>
           <t>South Atlantic</t>
         </is>
@@ -4384,10 +5154,15 @@
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>FL</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
+        <is>
+          <t>South</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
         <is>
           <t>South Atlantic</t>
         </is>
@@ -4410,10 +5185,15 @@
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>FL</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
+        <is>
+          <t>South</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
         <is>
           <t>South Atlantic</t>
         </is>
@@ -4436,10 +5216,15 @@
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>FL</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
+        <is>
+          <t>South</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
         <is>
           <t>South Atlantic</t>
         </is>
@@ -4462,10 +5247,15 @@
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>GA</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
+        <is>
+          <t>South</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
         <is>
           <t>South Atlantic</t>
         </is>
@@ -4488,10 +5278,15 @@
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>GA</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
+        <is>
+          <t>South</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
         <is>
           <t>South Atlantic</t>
         </is>
@@ -4514,10 +5309,15 @@
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>NC</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
+        <is>
+          <t>South</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
         <is>
           <t>South Atlantic</t>
         </is>
@@ -4540,10 +5340,15 @@
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>GA</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
+        <is>
+          <t>South</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
         <is>
           <t>South Atlantic</t>
         </is>
@@ -4566,10 +5371,15 @@
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>NC</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
+        <is>
+          <t>South</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
         <is>
           <t>South Atlantic</t>
         </is>
@@ -4592,10 +5402,15 @@
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>GA</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
+        <is>
+          <t>South</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
         <is>
           <t>South Atlantic</t>
         </is>
@@ -4618,10 +5433,15 @@
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>NC</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
+        <is>
+          <t>South</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
         <is>
           <t>South Atlantic</t>
         </is>
@@ -4644,10 +5464,15 @@
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>GA</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
+        <is>
+          <t>South</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
         <is>
           <t>South Atlantic</t>
         </is>
@@ -4670,10 +5495,15 @@
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>NC</t>
         </is>
       </c>
       <c r="F166" t="inlineStr">
+        <is>
+          <t>South</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
         <is>
           <t>South Atlantic</t>
         </is>
@@ -4696,10 +5526,15 @@
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>GA</t>
         </is>
       </c>
       <c r="F167" t="inlineStr">
+        <is>
+          <t>South</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr">
         <is>
           <t>South Atlantic</t>
         </is>
@@ -4722,10 +5557,15 @@
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>NC</t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
+        <is>
+          <t>South</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr">
         <is>
           <t>South Atlantic</t>
         </is>
@@ -4748,10 +5588,15 @@
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>NC</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
+        <is>
+          <t>South</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr">
         <is>
           <t>South Atlantic</t>
         </is>
@@ -4774,10 +5619,15 @@
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>VA</t>
         </is>
       </c>
       <c r="F170" t="inlineStr">
+        <is>
+          <t>South</t>
+        </is>
+      </c>
+      <c r="G170" t="inlineStr">
         <is>
           <t>South Atlantic</t>
         </is>
@@ -4800,10 +5650,15 @@
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>VA</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
+        <is>
+          <t>South</t>
+        </is>
+      </c>
+      <c r="G171" t="inlineStr">
         <is>
           <t>South Atlantic</t>
         </is>
@@ -4826,10 +5681,15 @@
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>VA</t>
         </is>
       </c>
       <c r="F172" t="inlineStr">
+        <is>
+          <t>South</t>
+        </is>
+      </c>
+      <c r="G172" t="inlineStr">
         <is>
           <t>South Atlantic</t>
         </is>
@@ -4852,10 +5712,15 @@
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>VA</t>
         </is>
       </c>
       <c r="F173" t="inlineStr">
+        <is>
+          <t>South</t>
+        </is>
+      </c>
+      <c r="G173" t="inlineStr">
         <is>
           <t>South Atlantic</t>
         </is>
@@ -4878,10 +5743,15 @@
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>VA</t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
+        <is>
+          <t>South</t>
+        </is>
+      </c>
+      <c r="G174" t="inlineStr">
         <is>
           <t>South Atlantic</t>
         </is>
@@ -4904,10 +5774,15 @@
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>VA</t>
         </is>
       </c>
       <c r="F175" t="inlineStr">
+        <is>
+          <t>South</t>
+        </is>
+      </c>
+      <c r="G175" t="inlineStr">
         <is>
           <t>South Atlantic</t>
         </is>
@@ -4930,10 +5805,15 @@
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>MD</t>
         </is>
       </c>
       <c r="F176" t="inlineStr">
+        <is>
+          <t>South</t>
+        </is>
+      </c>
+      <c r="G176" t="inlineStr">
         <is>
           <t>South Atlantic</t>
         </is>
@@ -4956,10 +5836,15 @@
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>MD</t>
         </is>
       </c>
       <c r="F177" t="inlineStr">
+        <is>
+          <t>South</t>
+        </is>
+      </c>
+      <c r="G177" t="inlineStr">
         <is>
           <t>South Atlantic</t>
         </is>
@@ -4982,10 +5867,15 @@
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>MD</t>
         </is>
       </c>
       <c r="F178" t="inlineStr">
+        <is>
+          <t>South</t>
+        </is>
+      </c>
+      <c r="G178" t="inlineStr">
         <is>
           <t>South Atlantic</t>
         </is>
@@ -5008,10 +5898,15 @@
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>MD</t>
         </is>
       </c>
       <c r="F179" t="inlineStr">
+        <is>
+          <t>South</t>
+        </is>
+      </c>
+      <c r="G179" t="inlineStr">
         <is>
           <t>South Atlantic</t>
         </is>
@@ -5034,10 +5929,15 @@
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>MD</t>
         </is>
       </c>
       <c r="F180" t="inlineStr">
+        <is>
+          <t>South</t>
+        </is>
+      </c>
+      <c r="G180" t="inlineStr">
         <is>
           <t>South Atlantic</t>
         </is>
@@ -5060,10 +5960,15 @@
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>MD</t>
         </is>
       </c>
       <c r="F181" t="inlineStr">
+        <is>
+          <t>South</t>
+        </is>
+      </c>
+      <c r="G181" t="inlineStr">
         <is>
           <t>South Atlantic</t>
         </is>
@@ -5086,10 +5991,15 @@
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="F182" t="inlineStr">
+        <is>
+          <t>South</t>
+        </is>
+      </c>
+      <c r="G182" t="inlineStr">
         <is>
           <t>South Atlantic</t>
         </is>
@@ -5112,10 +6022,15 @@
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="F183" t="inlineStr">
+        <is>
+          <t>South</t>
+        </is>
+      </c>
+      <c r="G183" t="inlineStr">
         <is>
           <t>South Atlantic</t>
         </is>
@@ -5138,10 +6053,15 @@
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="F184" t="inlineStr">
+        <is>
+          <t>South</t>
+        </is>
+      </c>
+      <c r="G184" t="inlineStr">
         <is>
           <t>South Atlantic</t>
         </is>
@@ -5164,10 +6084,15 @@
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="F185" t="inlineStr">
+        <is>
+          <t>South</t>
+        </is>
+      </c>
+      <c r="G185" t="inlineStr">
         <is>
           <t>South Atlantic</t>
         </is>
@@ -5190,10 +6115,15 @@
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="F186" t="inlineStr">
+        <is>
+          <t>South</t>
+        </is>
+      </c>
+      <c r="G186" t="inlineStr">
         <is>
           <t>South Atlantic</t>
         </is>
@@ -5216,10 +6146,15 @@
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="F187" t="inlineStr">
+        <is>
+          <t>South</t>
+        </is>
+      </c>
+      <c r="G187" t="inlineStr">
         <is>
           <t>South Atlantic</t>
         </is>
@@ -5242,10 +6177,15 @@
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>WV</t>
         </is>
       </c>
       <c r="F188" t="inlineStr">
+        <is>
+          <t>South</t>
+        </is>
+      </c>
+      <c r="G188" t="inlineStr">
         <is>
           <t>South Atlantic</t>
         </is>
@@ -5268,10 +6208,15 @@
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>WV</t>
         </is>
       </c>
       <c r="F189" t="inlineStr">
+        <is>
+          <t>South</t>
+        </is>
+      </c>
+      <c r="G189" t="inlineStr">
         <is>
           <t>South Atlantic</t>
         </is>
@@ -5294,10 +6239,15 @@
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>WV</t>
         </is>
       </c>
       <c r="F190" t="inlineStr">
+        <is>
+          <t>South</t>
+        </is>
+      </c>
+      <c r="G190" t="inlineStr">
         <is>
           <t>South Atlantic</t>
         </is>
@@ -5320,10 +6270,15 @@
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>WV</t>
         </is>
       </c>
       <c r="F191" t="inlineStr">
+        <is>
+          <t>South</t>
+        </is>
+      </c>
+      <c r="G191" t="inlineStr">
         <is>
           <t>South Atlantic</t>
         </is>
@@ -5346,10 +6301,15 @@
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>WV</t>
         </is>
       </c>
       <c r="F192" t="inlineStr">
+        <is>
+          <t>South</t>
+        </is>
+      </c>
+      <c r="G192" t="inlineStr">
         <is>
           <t>South Atlantic</t>
         </is>
@@ -5372,10 +6332,15 @@
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>WV</t>
         </is>
       </c>
       <c r="F193" t="inlineStr">
+        <is>
+          <t>South</t>
+        </is>
+      </c>
+      <c r="G193" t="inlineStr">
         <is>
           <t>South Atlantic</t>
         </is>
@@ -5398,10 +6363,15 @@
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="F194" t="inlineStr">
+        <is>
+          <t>South</t>
+        </is>
+      </c>
+      <c r="G194" t="inlineStr">
         <is>
           <t>South Atlantic</t>
         </is>
@@ -5424,10 +6394,15 @@
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="F195" t="inlineStr">
+        <is>
+          <t>South</t>
+        </is>
+      </c>
+      <c r="G195" t="inlineStr">
         <is>
           <t>South Atlantic</t>
         </is>
@@ -5450,10 +6425,15 @@
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="F196" t="inlineStr">
+        <is>
+          <t>South</t>
+        </is>
+      </c>
+      <c r="G196" t="inlineStr">
         <is>
           <t>South Atlantic</t>
         </is>
@@ -5476,10 +6456,15 @@
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="F197" t="inlineStr">
+        <is>
+          <t>South</t>
+        </is>
+      </c>
+      <c r="G197" t="inlineStr">
         <is>
           <t>South Atlantic</t>
         </is>
@@ -5502,10 +6487,15 @@
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="F198" t="inlineStr">
+        <is>
+          <t>South</t>
+        </is>
+      </c>
+      <c r="G198" t="inlineStr">
         <is>
           <t>South Atlantic</t>
         </is>
@@ -5528,10 +6518,15 @@
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="F199" t="inlineStr">
+        <is>
+          <t>South</t>
+        </is>
+      </c>
+      <c r="G199" t="inlineStr">
         <is>
           <t>South Atlantic</t>
         </is>
@@ -5554,10 +6549,15 @@
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>DC</t>
         </is>
       </c>
       <c r="F200" t="inlineStr">
+        <is>
+          <t>South</t>
+        </is>
+      </c>
+      <c r="G200" t="inlineStr">
         <is>
           <t>South Atlantic</t>
         </is>
@@ -5580,10 +6580,15 @@
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>DC</t>
         </is>
       </c>
       <c r="F201" t="inlineStr">
+        <is>
+          <t>South</t>
+        </is>
+      </c>
+      <c r="G201" t="inlineStr">
         <is>
           <t>South Atlantic</t>
         </is>
@@ -5606,10 +6611,15 @@
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>DC</t>
         </is>
       </c>
       <c r="F202" t="inlineStr">
+        <is>
+          <t>South</t>
+        </is>
+      </c>
+      <c r="G202" t="inlineStr">
         <is>
           <t>South Atlantic</t>
         </is>
@@ -5632,10 +6642,15 @@
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>DC</t>
         </is>
       </c>
       <c r="F203" t="inlineStr">
+        <is>
+          <t>South</t>
+        </is>
+      </c>
+      <c r="G203" t="inlineStr">
         <is>
           <t>South Atlantic</t>
         </is>
@@ -5658,10 +6673,15 @@
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>DC</t>
         </is>
       </c>
       <c r="F204" t="inlineStr">
+        <is>
+          <t>South</t>
+        </is>
+      </c>
+      <c r="G204" t="inlineStr">
         <is>
           <t>South Atlantic</t>
         </is>
@@ -5684,10 +6704,15 @@
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>DC</t>
         </is>
       </c>
       <c r="F205" t="inlineStr">
+        <is>
+          <t>South</t>
+        </is>
+      </c>
+      <c r="G205" t="inlineStr">
         <is>
           <t>South Atlantic</t>
         </is>
@@ -5710,10 +6735,15 @@
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>TX</t>
         </is>
       </c>
       <c r="F206" t="inlineStr">
+        <is>
+          <t>South</t>
+        </is>
+      </c>
+      <c r="G206" t="inlineStr">
         <is>
           <t>West South Central</t>
         </is>
@@ -5736,10 +6766,15 @@
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>TX</t>
         </is>
       </c>
       <c r="F207" t="inlineStr">
+        <is>
+          <t>South</t>
+        </is>
+      </c>
+      <c r="G207" t="inlineStr">
         <is>
           <t>West South Central</t>
         </is>
@@ -5762,10 +6797,15 @@
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>TX</t>
         </is>
       </c>
       <c r="F208" t="inlineStr">
+        <is>
+          <t>South</t>
+        </is>
+      </c>
+      <c r="G208" t="inlineStr">
         <is>
           <t>West South Central</t>
         </is>
@@ -5788,10 +6828,15 @@
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>TX</t>
         </is>
       </c>
       <c r="F209" t="inlineStr">
+        <is>
+          <t>South</t>
+        </is>
+      </c>
+      <c r="G209" t="inlineStr">
         <is>
           <t>West South Central</t>
         </is>
@@ -5814,10 +6859,15 @@
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>TX</t>
         </is>
       </c>
       <c r="F210" t="inlineStr">
+        <is>
+          <t>South</t>
+        </is>
+      </c>
+      <c r="G210" t="inlineStr">
         <is>
           <t>West South Central</t>
         </is>
@@ -5840,10 +6890,15 @@
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>TX</t>
         </is>
       </c>
       <c r="F211" t="inlineStr">
+        <is>
+          <t>South</t>
+        </is>
+      </c>
+      <c r="G211" t="inlineStr">
         <is>
           <t>West South Central</t>
         </is>
@@ -5866,10 +6921,15 @@
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>LA</t>
         </is>
       </c>
       <c r="F212" t="inlineStr">
+        <is>
+          <t>South</t>
+        </is>
+      </c>
+      <c r="G212" t="inlineStr">
         <is>
           <t>West South Central</t>
         </is>
@@ -5892,10 +6952,15 @@
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>LA</t>
         </is>
       </c>
       <c r="F213" t="inlineStr">
+        <is>
+          <t>South</t>
+        </is>
+      </c>
+      <c r="G213" t="inlineStr">
         <is>
           <t>West South Central</t>
         </is>
@@ -5918,10 +6983,15 @@
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>LA</t>
         </is>
       </c>
       <c r="F214" t="inlineStr">
+        <is>
+          <t>South</t>
+        </is>
+      </c>
+      <c r="G214" t="inlineStr">
         <is>
           <t>West South Central</t>
         </is>
@@ -5944,10 +7014,15 @@
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>LA</t>
         </is>
       </c>
       <c r="F215" t="inlineStr">
+        <is>
+          <t>South</t>
+        </is>
+      </c>
+      <c r="G215" t="inlineStr">
         <is>
           <t>West South Central</t>
         </is>
@@ -5970,10 +7045,15 @@
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>LA</t>
         </is>
       </c>
       <c r="F216" t="inlineStr">
+        <is>
+          <t>South</t>
+        </is>
+      </c>
+      <c r="G216" t="inlineStr">
         <is>
           <t>West South Central</t>
         </is>
@@ -5996,10 +7076,15 @@
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>LA</t>
         </is>
       </c>
       <c r="F217" t="inlineStr">
+        <is>
+          <t>South</t>
+        </is>
+      </c>
+      <c r="G217" t="inlineStr">
         <is>
           <t>West South Central</t>
         </is>
@@ -6022,10 +7107,15 @@
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>OK</t>
         </is>
       </c>
       <c r="F218" t="inlineStr">
+        <is>
+          <t>South</t>
+        </is>
+      </c>
+      <c r="G218" t="inlineStr">
         <is>
           <t>West South Central</t>
         </is>
@@ -6048,10 +7138,15 @@
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>OK</t>
         </is>
       </c>
       <c r="F219" t="inlineStr">
+        <is>
+          <t>South</t>
+        </is>
+      </c>
+      <c r="G219" t="inlineStr">
         <is>
           <t>West South Central</t>
         </is>
@@ -6074,10 +7169,15 @@
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>OK</t>
         </is>
       </c>
       <c r="F220" t="inlineStr">
+        <is>
+          <t>South</t>
+        </is>
+      </c>
+      <c r="G220" t="inlineStr">
         <is>
           <t>West South Central</t>
         </is>
@@ -6100,10 +7200,15 @@
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>OK</t>
         </is>
       </c>
       <c r="F221" t="inlineStr">
+        <is>
+          <t>South</t>
+        </is>
+      </c>
+      <c r="G221" t="inlineStr">
         <is>
           <t>West South Central</t>
         </is>
@@ -6126,10 +7231,15 @@
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>OK</t>
         </is>
       </c>
       <c r="F222" t="inlineStr">
+        <is>
+          <t>South</t>
+        </is>
+      </c>
+      <c r="G222" t="inlineStr">
         <is>
           <t>West South Central</t>
         </is>
@@ -6152,10 +7262,15 @@
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>OK</t>
         </is>
       </c>
       <c r="F223" t="inlineStr">
+        <is>
+          <t>South</t>
+        </is>
+      </c>
+      <c r="G223" t="inlineStr">
         <is>
           <t>West South Central</t>
         </is>
@@ -6178,10 +7293,15 @@
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="F224" t="inlineStr">
+        <is>
+          <t>South</t>
+        </is>
+      </c>
+      <c r="G224" t="inlineStr">
         <is>
           <t>West South Central</t>
         </is>
@@ -6204,10 +7324,15 @@
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="F225" t="inlineStr">
+        <is>
+          <t>South</t>
+        </is>
+      </c>
+      <c r="G225" t="inlineStr">
         <is>
           <t>West South Central</t>
         </is>
@@ -6230,10 +7355,15 @@
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="F226" t="inlineStr">
+        <is>
+          <t>South</t>
+        </is>
+      </c>
+      <c r="G226" t="inlineStr">
         <is>
           <t>West South Central</t>
         </is>
@@ -6256,10 +7386,15 @@
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="F227" t="inlineStr">
+        <is>
+          <t>South</t>
+        </is>
+      </c>
+      <c r="G227" t="inlineStr">
         <is>
           <t>West South Central</t>
         </is>
@@ -6282,10 +7417,15 @@
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="F228" t="inlineStr">
+        <is>
+          <t>South</t>
+        </is>
+      </c>
+      <c r="G228" t="inlineStr">
         <is>
           <t>West South Central</t>
         </is>
@@ -6308,10 +7448,15 @@
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="F229" t="inlineStr">
+        <is>
+          <t>South</t>
+        </is>
+      </c>
+      <c r="G229" t="inlineStr">
         <is>
           <t>West South Central</t>
         </is>
@@ -6334,10 +7479,15 @@
       </c>
       <c r="E230" t="inlineStr">
         <is>
+          <t>AZ</t>
+        </is>
+      </c>
+      <c r="F230" t="inlineStr">
+        <is>
           <t>West</t>
         </is>
       </c>
-      <c r="F230" t="inlineStr">
+      <c r="G230" t="inlineStr">
         <is>
           <t>Mountain</t>
         </is>
@@ -6360,10 +7510,15 @@
       </c>
       <c r="E231" t="inlineStr">
         <is>
+          <t>AZ</t>
+        </is>
+      </c>
+      <c r="F231" t="inlineStr">
+        <is>
           <t>West</t>
         </is>
       </c>
-      <c r="F231" t="inlineStr">
+      <c r="G231" t="inlineStr">
         <is>
           <t>Mountain</t>
         </is>
@@ -6386,10 +7541,15 @@
       </c>
       <c r="E232" t="inlineStr">
         <is>
+          <t>AZ</t>
+        </is>
+      </c>
+      <c r="F232" t="inlineStr">
+        <is>
           <t>West</t>
         </is>
       </c>
-      <c r="F232" t="inlineStr">
+      <c r="G232" t="inlineStr">
         <is>
           <t>Mountain</t>
         </is>
@@ -6412,10 +7572,15 @@
       </c>
       <c r="E233" t="inlineStr">
         <is>
+          <t>AZ</t>
+        </is>
+      </c>
+      <c r="F233" t="inlineStr">
+        <is>
           <t>West</t>
         </is>
       </c>
-      <c r="F233" t="inlineStr">
+      <c r="G233" t="inlineStr">
         <is>
           <t>Mountain</t>
         </is>
@@ -6438,10 +7603,15 @@
       </c>
       <c r="E234" t="inlineStr">
         <is>
+          <t>AZ</t>
+        </is>
+      </c>
+      <c r="F234" t="inlineStr">
+        <is>
           <t>West</t>
         </is>
       </c>
-      <c r="F234" t="inlineStr">
+      <c r="G234" t="inlineStr">
         <is>
           <t>Mountain</t>
         </is>
@@ -6464,10 +7634,15 @@
       </c>
       <c r="E235" t="inlineStr">
         <is>
+          <t>AZ</t>
+        </is>
+      </c>
+      <c r="F235" t="inlineStr">
+        <is>
           <t>West</t>
         </is>
       </c>
-      <c r="F235" t="inlineStr">
+      <c r="G235" t="inlineStr">
         <is>
           <t>Mountain</t>
         </is>
@@ -6490,10 +7665,15 @@
       </c>
       <c r="E236" t="inlineStr">
         <is>
+          <t>CO</t>
+        </is>
+      </c>
+      <c r="F236" t="inlineStr">
+        <is>
           <t>West</t>
         </is>
       </c>
-      <c r="F236" t="inlineStr">
+      <c r="G236" t="inlineStr">
         <is>
           <t>Mountain</t>
         </is>
@@ -6516,10 +7696,15 @@
       </c>
       <c r="E237" t="inlineStr">
         <is>
+          <t>CO</t>
+        </is>
+      </c>
+      <c r="F237" t="inlineStr">
+        <is>
           <t>West</t>
         </is>
       </c>
-      <c r="F237" t="inlineStr">
+      <c r="G237" t="inlineStr">
         <is>
           <t>Mountain</t>
         </is>
@@ -6542,10 +7727,15 @@
       </c>
       <c r="E238" t="inlineStr">
         <is>
+          <t>CO</t>
+        </is>
+      </c>
+      <c r="F238" t="inlineStr">
+        <is>
           <t>West</t>
         </is>
       </c>
-      <c r="F238" t="inlineStr">
+      <c r="G238" t="inlineStr">
         <is>
           <t>Mountain</t>
         </is>
@@ -6568,10 +7758,15 @@
       </c>
       <c r="E239" t="inlineStr">
         <is>
+          <t>CO</t>
+        </is>
+      </c>
+      <c r="F239" t="inlineStr">
+        <is>
           <t>West</t>
         </is>
       </c>
-      <c r="F239" t="inlineStr">
+      <c r="G239" t="inlineStr">
         <is>
           <t>Mountain</t>
         </is>
@@ -6594,10 +7789,15 @@
       </c>
       <c r="E240" t="inlineStr">
         <is>
+          <t>CO</t>
+        </is>
+      </c>
+      <c r="F240" t="inlineStr">
+        <is>
           <t>West</t>
         </is>
       </c>
-      <c r="F240" t="inlineStr">
+      <c r="G240" t="inlineStr">
         <is>
           <t>Mountain</t>
         </is>
@@ -6620,10 +7820,15 @@
       </c>
       <c r="E241" t="inlineStr">
         <is>
+          <t>CO</t>
+        </is>
+      </c>
+      <c r="F241" t="inlineStr">
+        <is>
           <t>West</t>
         </is>
       </c>
-      <c r="F241" t="inlineStr">
+      <c r="G241" t="inlineStr">
         <is>
           <t>Mountain</t>
         </is>
@@ -6646,10 +7851,15 @@
       </c>
       <c r="E242" t="inlineStr">
         <is>
+          <t>UT</t>
+        </is>
+      </c>
+      <c r="F242" t="inlineStr">
+        <is>
           <t>West</t>
         </is>
       </c>
-      <c r="F242" t="inlineStr">
+      <c r="G242" t="inlineStr">
         <is>
           <t>Mountain</t>
         </is>
@@ -6672,10 +7882,15 @@
       </c>
       <c r="E243" t="inlineStr">
         <is>
+          <t>UT</t>
+        </is>
+      </c>
+      <c r="F243" t="inlineStr">
+        <is>
           <t>West</t>
         </is>
       </c>
-      <c r="F243" t="inlineStr">
+      <c r="G243" t="inlineStr">
         <is>
           <t>Mountain</t>
         </is>
@@ -6698,10 +7913,15 @@
       </c>
       <c r="E244" t="inlineStr">
         <is>
+          <t>UT</t>
+        </is>
+      </c>
+      <c r="F244" t="inlineStr">
+        <is>
           <t>West</t>
         </is>
       </c>
-      <c r="F244" t="inlineStr">
+      <c r="G244" t="inlineStr">
         <is>
           <t>Mountain</t>
         </is>
@@ -6724,10 +7944,15 @@
       </c>
       <c r="E245" t="inlineStr">
         <is>
+          <t>NV</t>
+        </is>
+      </c>
+      <c r="F245" t="inlineStr">
+        <is>
           <t>West</t>
         </is>
       </c>
-      <c r="F245" t="inlineStr">
+      <c r="G245" t="inlineStr">
         <is>
           <t>Mountain</t>
         </is>
@@ -6750,10 +7975,15 @@
       </c>
       <c r="E246" t="inlineStr">
         <is>
+          <t>UT</t>
+        </is>
+      </c>
+      <c r="F246" t="inlineStr">
+        <is>
           <t>West</t>
         </is>
       </c>
-      <c r="F246" t="inlineStr">
+      <c r="G246" t="inlineStr">
         <is>
           <t>Mountain</t>
         </is>
@@ -6776,10 +8006,15 @@
       </c>
       <c r="E247" t="inlineStr">
         <is>
+          <t>NV</t>
+        </is>
+      </c>
+      <c r="F247" t="inlineStr">
+        <is>
           <t>West</t>
         </is>
       </c>
-      <c r="F247" t="inlineStr">
+      <c r="G247" t="inlineStr">
         <is>
           <t>Mountain</t>
         </is>
@@ -6802,10 +8037,15 @@
       </c>
       <c r="E248" t="inlineStr">
         <is>
+          <t>UT</t>
+        </is>
+      </c>
+      <c r="F248" t="inlineStr">
+        <is>
           <t>West</t>
         </is>
       </c>
-      <c r="F248" t="inlineStr">
+      <c r="G248" t="inlineStr">
         <is>
           <t>Mountain</t>
         </is>
@@ -6828,10 +8068,15 @@
       </c>
       <c r="E249" t="inlineStr">
         <is>
+          <t>NV</t>
+        </is>
+      </c>
+      <c r="F249" t="inlineStr">
+        <is>
           <t>West</t>
         </is>
       </c>
-      <c r="F249" t="inlineStr">
+      <c r="G249" t="inlineStr">
         <is>
           <t>Mountain</t>
         </is>
@@ -6854,10 +8099,15 @@
       </c>
       <c r="E250" t="inlineStr">
         <is>
+          <t>UT</t>
+        </is>
+      </c>
+      <c r="F250" t="inlineStr">
+        <is>
           <t>West</t>
         </is>
       </c>
-      <c r="F250" t="inlineStr">
+      <c r="G250" t="inlineStr">
         <is>
           <t>Mountain</t>
         </is>
@@ -6880,10 +8130,15 @@
       </c>
       <c r="E251" t="inlineStr">
         <is>
+          <t>NV</t>
+        </is>
+      </c>
+      <c r="F251" t="inlineStr">
+        <is>
           <t>West</t>
         </is>
       </c>
-      <c r="F251" t="inlineStr">
+      <c r="G251" t="inlineStr">
         <is>
           <t>Mountain</t>
         </is>
@@ -6906,10 +8161,15 @@
       </c>
       <c r="E252" t="inlineStr">
         <is>
+          <t>NV</t>
+        </is>
+      </c>
+      <c r="F252" t="inlineStr">
+        <is>
           <t>West</t>
         </is>
       </c>
-      <c r="F252" t="inlineStr">
+      <c r="G252" t="inlineStr">
         <is>
           <t>Mountain</t>
         </is>
@@ -6932,10 +8192,15 @@
       </c>
       <c r="E253" t="inlineStr">
         <is>
+          <t>NV</t>
+        </is>
+      </c>
+      <c r="F253" t="inlineStr">
+        <is>
           <t>West</t>
         </is>
       </c>
-      <c r="F253" t="inlineStr">
+      <c r="G253" t="inlineStr">
         <is>
           <t>Mountain</t>
         </is>
@@ -6958,10 +8223,15 @@
       </c>
       <c r="E254" t="inlineStr">
         <is>
+          <t>NM</t>
+        </is>
+      </c>
+      <c r="F254" t="inlineStr">
+        <is>
           <t>West</t>
         </is>
       </c>
-      <c r="F254" t="inlineStr">
+      <c r="G254" t="inlineStr">
         <is>
           <t>Mountain</t>
         </is>
@@ -6984,10 +8254,15 @@
       </c>
       <c r="E255" t="inlineStr">
         <is>
+          <t>NM</t>
+        </is>
+      </c>
+      <c r="F255" t="inlineStr">
+        <is>
           <t>West</t>
         </is>
       </c>
-      <c r="F255" t="inlineStr">
+      <c r="G255" t="inlineStr">
         <is>
           <t>Mountain</t>
         </is>
@@ -7010,10 +8285,15 @@
       </c>
       <c r="E256" t="inlineStr">
         <is>
+          <t>NM</t>
+        </is>
+      </c>
+      <c r="F256" t="inlineStr">
+        <is>
           <t>West</t>
         </is>
       </c>
-      <c r="F256" t="inlineStr">
+      <c r="G256" t="inlineStr">
         <is>
           <t>Mountain</t>
         </is>
@@ -7036,10 +8316,15 @@
       </c>
       <c r="E257" t="inlineStr">
         <is>
+          <t>NM</t>
+        </is>
+      </c>
+      <c r="F257" t="inlineStr">
+        <is>
           <t>West</t>
         </is>
       </c>
-      <c r="F257" t="inlineStr">
+      <c r="G257" t="inlineStr">
         <is>
           <t>Mountain</t>
         </is>
@@ -7062,10 +8347,15 @@
       </c>
       <c r="E258" t="inlineStr">
         <is>
+          <t>NM</t>
+        </is>
+      </c>
+      <c r="F258" t="inlineStr">
+        <is>
           <t>West</t>
         </is>
       </c>
-      <c r="F258" t="inlineStr">
+      <c r="G258" t="inlineStr">
         <is>
           <t>Mountain</t>
         </is>
@@ -7088,10 +8378,15 @@
       </c>
       <c r="E259" t="inlineStr">
         <is>
+          <t>NM</t>
+        </is>
+      </c>
+      <c r="F259" t="inlineStr">
+        <is>
           <t>West</t>
         </is>
       </c>
-      <c r="F259" t="inlineStr">
+      <c r="G259" t="inlineStr">
         <is>
           <t>Mountain</t>
         </is>
@@ -7114,10 +8409,15 @@
       </c>
       <c r="E260" t="inlineStr">
         <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="F260" t="inlineStr">
+        <is>
           <t>West</t>
         </is>
       </c>
-      <c r="F260" t="inlineStr">
+      <c r="G260" t="inlineStr">
         <is>
           <t>Mountain</t>
         </is>
@@ -7140,10 +8440,15 @@
       </c>
       <c r="E261" t="inlineStr">
         <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="F261" t="inlineStr">
+        <is>
           <t>West</t>
         </is>
       </c>
-      <c r="F261" t="inlineStr">
+      <c r="G261" t="inlineStr">
         <is>
           <t>Mountain</t>
         </is>
@@ -7166,10 +8471,15 @@
       </c>
       <c r="E262" t="inlineStr">
         <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="F262" t="inlineStr">
+        <is>
           <t>West</t>
         </is>
       </c>
-      <c r="F262" t="inlineStr">
+      <c r="G262" t="inlineStr">
         <is>
           <t>Mountain</t>
         </is>
@@ -7192,10 +8502,15 @@
       </c>
       <c r="E263" t="inlineStr">
         <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="F263" t="inlineStr">
+        <is>
           <t>West</t>
         </is>
       </c>
-      <c r="F263" t="inlineStr">
+      <c r="G263" t="inlineStr">
         <is>
           <t>Mountain</t>
         </is>
@@ -7218,10 +8533,15 @@
       </c>
       <c r="E264" t="inlineStr">
         <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="F264" t="inlineStr">
+        <is>
           <t>West</t>
         </is>
       </c>
-      <c r="F264" t="inlineStr">
+      <c r="G264" t="inlineStr">
         <is>
           <t>Mountain</t>
         </is>
@@ -7244,10 +8564,15 @@
       </c>
       <c r="E265" t="inlineStr">
         <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="F265" t="inlineStr">
+        <is>
           <t>West</t>
         </is>
       </c>
-      <c r="F265" t="inlineStr">
+      <c r="G265" t="inlineStr">
         <is>
           <t>Mountain</t>
         </is>
@@ -7270,10 +8595,15 @@
       </c>
       <c r="E266" t="inlineStr">
         <is>
+          <t>MT</t>
+        </is>
+      </c>
+      <c r="F266" t="inlineStr">
+        <is>
           <t>West</t>
         </is>
       </c>
-      <c r="F266" t="inlineStr">
+      <c r="G266" t="inlineStr">
         <is>
           <t>Mountain</t>
         </is>
@@ -7296,10 +8626,15 @@
       </c>
       <c r="E267" t="inlineStr">
         <is>
+          <t>MT</t>
+        </is>
+      </c>
+      <c r="F267" t="inlineStr">
+        <is>
           <t>West</t>
         </is>
       </c>
-      <c r="F267" t="inlineStr">
+      <c r="G267" t="inlineStr">
         <is>
           <t>Mountain</t>
         </is>
@@ -7322,10 +8657,15 @@
       </c>
       <c r="E268" t="inlineStr">
         <is>
+          <t>MT</t>
+        </is>
+      </c>
+      <c r="F268" t="inlineStr">
+        <is>
           <t>West</t>
         </is>
       </c>
-      <c r="F268" t="inlineStr">
+      <c r="G268" t="inlineStr">
         <is>
           <t>Mountain</t>
         </is>
@@ -7348,10 +8688,15 @@
       </c>
       <c r="E269" t="inlineStr">
         <is>
+          <t>MT</t>
+        </is>
+      </c>
+      <c r="F269" t="inlineStr">
+        <is>
           <t>West</t>
         </is>
       </c>
-      <c r="F269" t="inlineStr">
+      <c r="G269" t="inlineStr">
         <is>
           <t>Mountain</t>
         </is>
@@ -7374,10 +8719,15 @@
       </c>
       <c r="E270" t="inlineStr">
         <is>
+          <t>MT</t>
+        </is>
+      </c>
+      <c r="F270" t="inlineStr">
+        <is>
           <t>West</t>
         </is>
       </c>
-      <c r="F270" t="inlineStr">
+      <c r="G270" t="inlineStr">
         <is>
           <t>Mountain</t>
         </is>
@@ -7400,10 +8750,15 @@
       </c>
       <c r="E271" t="inlineStr">
         <is>
+          <t>MT</t>
+        </is>
+      </c>
+      <c r="F271" t="inlineStr">
+        <is>
           <t>West</t>
         </is>
       </c>
-      <c r="F271" t="inlineStr">
+      <c r="G271" t="inlineStr">
         <is>
           <t>Mountain</t>
         </is>
@@ -7426,10 +8781,15 @@
       </c>
       <c r="E272" t="inlineStr">
         <is>
+          <t>WY</t>
+        </is>
+      </c>
+      <c r="F272" t="inlineStr">
+        <is>
           <t>West</t>
         </is>
       </c>
-      <c r="F272" t="inlineStr">
+      <c r="G272" t="inlineStr">
         <is>
           <t>Mountain</t>
         </is>
@@ -7452,10 +8812,15 @@
       </c>
       <c r="E273" t="inlineStr">
         <is>
+          <t>WY</t>
+        </is>
+      </c>
+      <c r="F273" t="inlineStr">
+        <is>
           <t>West</t>
         </is>
       </c>
-      <c r="F273" t="inlineStr">
+      <c r="G273" t="inlineStr">
         <is>
           <t>Mountain</t>
         </is>
@@ -7478,10 +8843,15 @@
       </c>
       <c r="E274" t="inlineStr">
         <is>
+          <t>WY</t>
+        </is>
+      </c>
+      <c r="F274" t="inlineStr">
+        <is>
           <t>West</t>
         </is>
       </c>
-      <c r="F274" t="inlineStr">
+      <c r="G274" t="inlineStr">
         <is>
           <t>Mountain</t>
         </is>
@@ -7504,10 +8874,15 @@
       </c>
       <c r="E275" t="inlineStr">
         <is>
+          <t>WY</t>
+        </is>
+      </c>
+      <c r="F275" t="inlineStr">
+        <is>
           <t>West</t>
         </is>
       </c>
-      <c r="F275" t="inlineStr">
+      <c r="G275" t="inlineStr">
         <is>
           <t>Mountain</t>
         </is>
@@ -7530,10 +8905,15 @@
       </c>
       <c r="E276" t="inlineStr">
         <is>
+          <t>WY</t>
+        </is>
+      </c>
+      <c r="F276" t="inlineStr">
+        <is>
           <t>West</t>
         </is>
       </c>
-      <c r="F276" t="inlineStr">
+      <c r="G276" t="inlineStr">
         <is>
           <t>Mountain</t>
         </is>
@@ -7556,10 +8936,15 @@
       </c>
       <c r="E277" t="inlineStr">
         <is>
+          <t>WY</t>
+        </is>
+      </c>
+      <c r="F277" t="inlineStr">
+        <is>
           <t>West</t>
         </is>
       </c>
-      <c r="F277" t="inlineStr">
+      <c r="G277" t="inlineStr">
         <is>
           <t>Mountain</t>
         </is>
@@ -7582,10 +8967,15 @@
       </c>
       <c r="E278" t="inlineStr">
         <is>
+          <t>CA</t>
+        </is>
+      </c>
+      <c r="F278" t="inlineStr">
+        <is>
           <t>West</t>
         </is>
       </c>
-      <c r="F278" t="inlineStr">
+      <c r="G278" t="inlineStr">
         <is>
           <t>Pacific</t>
         </is>
@@ -7608,10 +8998,15 @@
       </c>
       <c r="E279" t="inlineStr">
         <is>
+          <t>CA</t>
+        </is>
+      </c>
+      <c r="F279" t="inlineStr">
+        <is>
           <t>West</t>
         </is>
       </c>
-      <c r="F279" t="inlineStr">
+      <c r="G279" t="inlineStr">
         <is>
           <t>Pacific</t>
         </is>
@@ -7634,10 +9029,15 @@
       </c>
       <c r="E280" t="inlineStr">
         <is>
+          <t>CA</t>
+        </is>
+      </c>
+      <c r="F280" t="inlineStr">
+        <is>
           <t>West</t>
         </is>
       </c>
-      <c r="F280" t="inlineStr">
+      <c r="G280" t="inlineStr">
         <is>
           <t>Pacific</t>
         </is>
@@ -7660,10 +9060,15 @@
       </c>
       <c r="E281" t="inlineStr">
         <is>
+          <t>CA</t>
+        </is>
+      </c>
+      <c r="F281" t="inlineStr">
+        <is>
           <t>West</t>
         </is>
       </c>
-      <c r="F281" t="inlineStr">
+      <c r="G281" t="inlineStr">
         <is>
           <t>Pacific</t>
         </is>
@@ -7686,10 +9091,15 @@
       </c>
       <c r="E282" t="inlineStr">
         <is>
+          <t>CA</t>
+        </is>
+      </c>
+      <c r="F282" t="inlineStr">
+        <is>
           <t>West</t>
         </is>
       </c>
-      <c r="F282" t="inlineStr">
+      <c r="G282" t="inlineStr">
         <is>
           <t>Pacific</t>
         </is>
@@ -7712,10 +9122,15 @@
       </c>
       <c r="E283" t="inlineStr">
         <is>
+          <t>CA</t>
+        </is>
+      </c>
+      <c r="F283" t="inlineStr">
+        <is>
           <t>West</t>
         </is>
       </c>
-      <c r="F283" t="inlineStr">
+      <c r="G283" t="inlineStr">
         <is>
           <t>Pacific</t>
         </is>
@@ -7738,10 +9153,15 @@
       </c>
       <c r="E284" t="inlineStr">
         <is>
+          <t>WA</t>
+        </is>
+      </c>
+      <c r="F284" t="inlineStr">
+        <is>
           <t>West</t>
         </is>
       </c>
-      <c r="F284" t="inlineStr">
+      <c r="G284" t="inlineStr">
         <is>
           <t>Pacific</t>
         </is>
@@ -7764,10 +9184,15 @@
       </c>
       <c r="E285" t="inlineStr">
         <is>
+          <t>WA</t>
+        </is>
+      </c>
+      <c r="F285" t="inlineStr">
+        <is>
           <t>West</t>
         </is>
       </c>
-      <c r="F285" t="inlineStr">
+      <c r="G285" t="inlineStr">
         <is>
           <t>Pacific</t>
         </is>
@@ -7790,10 +9215,15 @@
       </c>
       <c r="E286" t="inlineStr">
         <is>
+          <t>WA</t>
+        </is>
+      </c>
+      <c r="F286" t="inlineStr">
+        <is>
           <t>West</t>
         </is>
       </c>
-      <c r="F286" t="inlineStr">
+      <c r="G286" t="inlineStr">
         <is>
           <t>Pacific</t>
         </is>
@@ -7816,10 +9246,15 @@
       </c>
       <c r="E287" t="inlineStr">
         <is>
+          <t>WA</t>
+        </is>
+      </c>
+      <c r="F287" t="inlineStr">
+        <is>
           <t>West</t>
         </is>
       </c>
-      <c r="F287" t="inlineStr">
+      <c r="G287" t="inlineStr">
         <is>
           <t>Pacific</t>
         </is>
@@ -7842,10 +9277,15 @@
       </c>
       <c r="E288" t="inlineStr">
         <is>
+          <t>WA</t>
+        </is>
+      </c>
+      <c r="F288" t="inlineStr">
+        <is>
           <t>West</t>
         </is>
       </c>
-      <c r="F288" t="inlineStr">
+      <c r="G288" t="inlineStr">
         <is>
           <t>Pacific</t>
         </is>
@@ -7868,10 +9308,15 @@
       </c>
       <c r="E289" t="inlineStr">
         <is>
+          <t>WA</t>
+        </is>
+      </c>
+      <c r="F289" t="inlineStr">
+        <is>
           <t>West</t>
         </is>
       </c>
-      <c r="F289" t="inlineStr">
+      <c r="G289" t="inlineStr">
         <is>
           <t>Pacific</t>
         </is>
@@ -7894,10 +9339,15 @@
       </c>
       <c r="E290" t="inlineStr">
         <is>
+          <t>OR</t>
+        </is>
+      </c>
+      <c r="F290" t="inlineStr">
+        <is>
           <t>West</t>
         </is>
       </c>
-      <c r="F290" t="inlineStr">
+      <c r="G290" t="inlineStr">
         <is>
           <t>Pacific</t>
         </is>
@@ -7920,10 +9370,15 @@
       </c>
       <c r="E291" t="inlineStr">
         <is>
+          <t>OR</t>
+        </is>
+      </c>
+      <c r="F291" t="inlineStr">
+        <is>
           <t>West</t>
         </is>
       </c>
-      <c r="F291" t="inlineStr">
+      <c r="G291" t="inlineStr">
         <is>
           <t>Pacific</t>
         </is>
@@ -7946,10 +9401,15 @@
       </c>
       <c r="E292" t="inlineStr">
         <is>
+          <t>OR</t>
+        </is>
+      </c>
+      <c r="F292" t="inlineStr">
+        <is>
           <t>West</t>
         </is>
       </c>
-      <c r="F292" t="inlineStr">
+      <c r="G292" t="inlineStr">
         <is>
           <t>Pacific</t>
         </is>
@@ -7972,10 +9432,15 @@
       </c>
       <c r="E293" t="inlineStr">
         <is>
+          <t>OR</t>
+        </is>
+      </c>
+      <c r="F293" t="inlineStr">
+        <is>
           <t>West</t>
         </is>
       </c>
-      <c r="F293" t="inlineStr">
+      <c r="G293" t="inlineStr">
         <is>
           <t>Pacific</t>
         </is>
@@ -7998,10 +9463,15 @@
       </c>
       <c r="E294" t="inlineStr">
         <is>
+          <t>OR</t>
+        </is>
+      </c>
+      <c r="F294" t="inlineStr">
+        <is>
           <t>West</t>
         </is>
       </c>
-      <c r="F294" t="inlineStr">
+      <c r="G294" t="inlineStr">
         <is>
           <t>Pacific</t>
         </is>
@@ -8024,10 +9494,15 @@
       </c>
       <c r="E295" t="inlineStr">
         <is>
+          <t>OR</t>
+        </is>
+      </c>
+      <c r="F295" t="inlineStr">
+        <is>
           <t>West</t>
         </is>
       </c>
-      <c r="F295" t="inlineStr">
+      <c r="G295" t="inlineStr">
         <is>
           <t>Pacific</t>
         </is>
@@ -8050,10 +9525,15 @@
       </c>
       <c r="E296" t="inlineStr">
         <is>
+          <t>HI</t>
+        </is>
+      </c>
+      <c r="F296" t="inlineStr">
+        <is>
           <t>West</t>
         </is>
       </c>
-      <c r="F296" t="inlineStr">
+      <c r="G296" t="inlineStr">
         <is>
           <t>Pacific</t>
         </is>
@@ -8076,10 +9556,15 @@
       </c>
       <c r="E297" t="inlineStr">
         <is>
+          <t>HI</t>
+        </is>
+      </c>
+      <c r="F297" t="inlineStr">
+        <is>
           <t>West</t>
         </is>
       </c>
-      <c r="F297" t="inlineStr">
+      <c r="G297" t="inlineStr">
         <is>
           <t>Pacific</t>
         </is>
@@ -8102,10 +9587,15 @@
       </c>
       <c r="E298" t="inlineStr">
         <is>
+          <t>HI</t>
+        </is>
+      </c>
+      <c r="F298" t="inlineStr">
+        <is>
           <t>West</t>
         </is>
       </c>
-      <c r="F298" t="inlineStr">
+      <c r="G298" t="inlineStr">
         <is>
           <t>Pacific</t>
         </is>
@@ -8128,10 +9618,15 @@
       </c>
       <c r="E299" t="inlineStr">
         <is>
+          <t>HI</t>
+        </is>
+      </c>
+      <c r="F299" t="inlineStr">
+        <is>
           <t>West</t>
         </is>
       </c>
-      <c r="F299" t="inlineStr">
+      <c r="G299" t="inlineStr">
         <is>
           <t>Pacific</t>
         </is>
@@ -8154,10 +9649,15 @@
       </c>
       <c r="E300" t="inlineStr">
         <is>
+          <t>HI</t>
+        </is>
+      </c>
+      <c r="F300" t="inlineStr">
+        <is>
           <t>West</t>
         </is>
       </c>
-      <c r="F300" t="inlineStr">
+      <c r="G300" t="inlineStr">
         <is>
           <t>Pacific</t>
         </is>
@@ -8180,10 +9680,15 @@
       </c>
       <c r="E301" t="inlineStr">
         <is>
+          <t>HI</t>
+        </is>
+      </c>
+      <c r="F301" t="inlineStr">
+        <is>
           <t>West</t>
         </is>
       </c>
-      <c r="F301" t="inlineStr">
+      <c r="G301" t="inlineStr">
         <is>
           <t>Pacific</t>
         </is>
@@ -8206,10 +9711,15 @@
       </c>
       <c r="E302" t="inlineStr">
         <is>
+          <t>AK</t>
+        </is>
+      </c>
+      <c r="F302" t="inlineStr">
+        <is>
           <t>West</t>
         </is>
       </c>
-      <c r="F302" t="inlineStr">
+      <c r="G302" t="inlineStr">
         <is>
           <t>Pacific</t>
         </is>
@@ -8232,10 +9742,15 @@
       </c>
       <c r="E303" t="inlineStr">
         <is>
+          <t>AK</t>
+        </is>
+      </c>
+      <c r="F303" t="inlineStr">
+        <is>
           <t>West</t>
         </is>
       </c>
-      <c r="F303" t="inlineStr">
+      <c r="G303" t="inlineStr">
         <is>
           <t>Pacific</t>
         </is>
@@ -8258,10 +9773,15 @@
       </c>
       <c r="E304" t="inlineStr">
         <is>
+          <t>AK</t>
+        </is>
+      </c>
+      <c r="F304" t="inlineStr">
+        <is>
           <t>West</t>
         </is>
       </c>
-      <c r="F304" t="inlineStr">
+      <c r="G304" t="inlineStr">
         <is>
           <t>Pacific</t>
         </is>
@@ -8284,10 +9804,15 @@
       </c>
       <c r="E305" t="inlineStr">
         <is>
+          <t>AK</t>
+        </is>
+      </c>
+      <c r="F305" t="inlineStr">
+        <is>
           <t>West</t>
         </is>
       </c>
-      <c r="F305" t="inlineStr">
+      <c r="G305" t="inlineStr">
         <is>
           <t>Pacific</t>
         </is>
@@ -8310,10 +9835,15 @@
       </c>
       <c r="E306" t="inlineStr">
         <is>
+          <t>AK</t>
+        </is>
+      </c>
+      <c r="F306" t="inlineStr">
+        <is>
           <t>West</t>
         </is>
       </c>
-      <c r="F306" t="inlineStr">
+      <c r="G306" t="inlineStr">
         <is>
           <t>Pacific</t>
         </is>
@@ -8336,10 +9866,15 @@
       </c>
       <c r="E307" t="inlineStr">
         <is>
+          <t>AK</t>
+        </is>
+      </c>
+      <c r="F307" t="inlineStr">
+        <is>
           <t>West</t>
         </is>
       </c>
-      <c r="F307" t="inlineStr">
+      <c r="G307" t="inlineStr">
         <is>
           <t>Pacific</t>
         </is>
